--- a/PM1/rse/week3/Herramientas Internacionales y Nacionales de Gestión de la RSE__.xlsx
+++ b/PM1/rse/week3/Herramientas Internacionales y Nacionales de Gestión de la RSE__.xlsx
@@ -1,49 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\github-mariana\pm\PM1\rse\week3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A1E014-5D45-4A63-A42C-BB2F50751273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Hoja 3" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Hoja 2" sheetId="3" r:id="rId6"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja 3" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja 2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="M12">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">https://www.globalstd.com/articulos_globaltv/debida-diligencia-y-ejemplos-relacionados-con-iso-37001/</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Aplica para agricultura
+	-Jorge Arceo Bautista</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B8">
+    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t xml:space="preserve">Aplica para agricultura
-	-Jorge Arceo Bautista</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M11">
-      <text>
-        <t xml:space="preserve">https://www.gob.mx/stps/acciones-y-programas/distintivos-que-otorga-la-secretaria-del-trabajo-y-prevision-social
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>https://www.gob.mx/stps/acciones-y-programas/distintivos-que-otorga-la-secretaria-del-trabajo-y-prevision-social
 	-Jorge Arceo Bautista
 https://mexicoindustry.com/noticia/jalisco/empresas-jaliscienses-abren-puertas-a-inclusin-laboral
 	-Jorge Arceo Bautista</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A18">
+    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">Bundi
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>https://www.globalstd.com/articulos_globaltv/debida-diligencia-y-ejemplos-relacionados-con-iso-37001/</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Bundi
 	-Maria de los Angeles Trillo Vargas
 Muy bien Bundi.
 El vie, 27 ago 2021 a las 21:17, Maria de los Angeles T... (Hojas de
 	-Laura Rochín Mozqueda</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -51,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="207">
   <si>
     <t>EMPRESA FSMILIARMENTE RESPONSABLE</t>
   </si>
@@ -168,9 +209,6 @@
   </si>
   <si>
     <t>1. Pagar al productor el precio mínimo fairtrade, que protege al productor contra las caídas del precio de mercado                                                                                                                                                                            2. Implementar la prima fairtrade para que los productores puedan invertir en actividades y proyectos de su elección                                                                                3. Prevenir el riesgo de trabajo infantil y otras formas de explotación</t>
-  </si>
-  <si>
-    <t>https://info.fairtrade.net/es/what</t>
   </si>
   <si>
     <t>olivia mendoza</t>
@@ -506,9 +544,6 @@
 a los clientes</t>
   </si>
   <si>
-    <t>La piden las grandes empresas a sus proveedores como Walmart</t>
-  </si>
-  <si>
     <t>JJUAN CARLOS</t>
   </si>
   <si>
@@ -609,9 +644,6 @@
   </si>
   <si>
     <t xml:space="preserve">1. Uso de maderas sustentables de origen más común. 2. Uso de maderas antiguas  para nuevas construcciones.  3. Capacitación de empleados y gerentes para evitar riesgos y trabajos forzados en la producción. </t>
-  </si>
-  <si>
-    <t>https://mx.fsc.org/mx-es</t>
   </si>
   <si>
     <t>ANA ISABEL</t>
@@ -685,33 +717,6 @@
     <t xml:space="preserve">Hospital San Javier </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Unilever Mexicana, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <sz val="12.0"/>
-        <u/>
-      </rPr>
-      <t>S.de</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve"> R.L. de C.V.                      Planta Lerma </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">-Talleres, capacitaciones y simulacros orientados a involucrar y preparar a todos los trabajadores                                                                  -Creación de brigadas de Seguridad en casos de situaciones de riesgo                                                                                                                                               - Sistemas de administración en materia de seguridad y salud laboral </t>
   </si>
   <si>
@@ -761,134 +766,6 @@
   </si>
   <si>
     <t>El Distintivo ESR es un distintivo que acredita a las empresas ante sus grupos de interés (colaboradores, inversionistas, clientes, autoridades, etc.) como una organización comprometida en materia de responsabilidad social, también agrega valor y rentabilidad a la marca.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Poppins"/>
-        <b/>
-        <color rgb="FF222222"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>• Comercial:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Poppins"/>
-        <color rgb="FF222222"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> aumenta las ventas al diferenciar sus productos y servicios de la competencia, anticipa las tendencias y facilita el acceso a mercados globales.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Poppins"/>
-        <b/>
-        <color rgb="FF222222"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>• Legal:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Poppins"/>
-        <color rgb="FF222222"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> mejora el entendimiento de requerimientos legales, exigencias de reguladores y reduce la presión de agencias fiscalizadoras.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Poppins"/>
-        <b/>
-        <color rgb="FF222222"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">• Laboral: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Poppins"/>
-        <color rgb="FF222222"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>facilita el reclutamiento del personal de primer nivel y la retención de talentos, genera relaciones de largo plazo con los colaboradores y alinea sus expectativas individuales con los objetivos de las empresas.
-•</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Poppins"/>
-        <b/>
-        <color rgb="FF222222"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> Financiero: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Poppins"/>
-        <color rgb="FF222222"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">incrementa la confianza de accionistas, mejora la percepción de riesgo, facilita el acceso a financiamiento, favorece la obtención de socios estratégicos y la atracción de inversiones.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Poppins"/>
-        <b/>
-        <color rgb="FF222222"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>• Reputación:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Poppins"/>
-        <color rgb="FF222222"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> mejora la imagen pública frente a sus grupos de interés y aumenta la fidelidad de los clientes.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Poppins"/>
-        <b/>
-        <color rgb="FF222222"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>• Gestión:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Poppins"/>
-        <color rgb="FF222222"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> permite identificar áreas de mejora de potencial; comparar resultados frente a los indicadores, frente a sí misma y con el resto de las empresas participantes.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Poppins"/>
-        <b/>
-        <color rgb="FF222222"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">• Impacto: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Poppins"/>
-        <color rgb="FF222222"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">medir la evolución de sus resultados y comunicar sus prácticas de RSE.
-</t>
-    </r>
   </si>
   <si>
     <t>Una empresa que cuenta con este Distinto ESR se muestra mucho más atractiva para las instituciones financieras como para los consumidores, quienes han demostrado mayor interés por aquellas marcas que tienen un impacto positivo.</t>
@@ -905,291 +782,127 @@
 3.- En su Código de Ética tienen múltiples señalamientos, como "se mantienen limpias las áreas de trabajo y áreas comunes, generando un entorno de trabajo digno".</t>
   </si>
   <si>
-    <t>https://www.expoknews.com/que-es-y-como-obtener-el-distintivo-esr/</t>
+    <t xml:space="preserve">• Comercial: aumenta las ventas al diferenciar sus productos y servicios de la competencia, anticipa las tendencias y facilita el acceso a mercados globales.
+• Legal: mejora el entendimiento de requerimientos legales, exigencias de reguladores y reduce la presión de agencias fiscalizadoras.
+• Laboral: facilita el reclutamiento del personal de primer nivel y la retención de talentos, genera relaciones de largo plazo con los colaboradores y alinea sus expectativas individuales con los objetivos de las empresas.
+• Financiero: incrementa la confianza de accionistas, mejora la percepción de riesgo, facilita el acceso a financiamiento, favorece la obtención de socios estratégicos y la atracción de inversiones.
+• Reputación: mejora la imagen pública frente a sus grupos de interés y aumenta la fidelidad de los clientes.
+• Gestión: permite identificar áreas de mejora de potencial; comparar resultados frente a los indicadores, frente a sí misma y con el resto de las empresas participantes.
+• Impacto: medir la evolución de sus resultados y comunicar sus prácticas de RSE.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unilever Mexicana, S.de R.L. de C.V.                      Planta Lerma </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="52">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF222222"/>
-      <name val="&quot;Open Sans&quot;"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color rgb="FFEBE7E0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color rgb="FF000000"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Open Sans&quot;"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="15.0"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Poppins"/>
     </font>
     <font>
-      <sz val="14.0"/>
-      <color rgb="FF333333"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF5F6368"/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF333333"/>
-      <name val="Lato"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Lato"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color rgb="FF000000"/>
-      <name val="Lato"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF424243"/>
-      <name val="Lato"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color rgb="FF424243"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color rgb="FF192227"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="13.0"/>
-      <color rgb="FF192227"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF192227"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color rgb="FF192227"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color rgb="FF262626"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF192227"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FF222222"/>
-      <name val="Poppins"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1199,13 +912,41 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1219,8 +960,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1230,422 +973,283 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="76">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="24" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="24" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="42" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="43" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="44" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="45" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="46" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="46" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="48" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="46" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="49" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="50" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="51" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
+    <cellStyle name="40% - Accent2" xfId="4" builtinId="35"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1835,56 +1439,60 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6.0" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B8" sqref="B8" pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.0"/>
-    <col customWidth="1" min="2" max="2" width="35.88"/>
-    <col customWidth="1" min="3" max="3" width="31.63"/>
-    <col customWidth="1" min="4" max="4" width="50.38"/>
-    <col customWidth="1" min="5" max="5" width="44.0"/>
-    <col customWidth="1" min="6" max="6" width="23.63"/>
-    <col customWidth="1" min="7" max="7" width="64.75"/>
-    <col customWidth="1" min="8" max="8" width="74.63"/>
-    <col customWidth="1" min="9" max="9" width="66.13"/>
-    <col customWidth="1" min="10" max="10" width="34.88"/>
-    <col customWidth="1" min="11" max="11" width="30.0"/>
-    <col customWidth="1" min="12" max="12" width="27.25"/>
-    <col customWidth="1" min="13" max="13" width="52.13"/>
-    <col customWidth="1" min="14" max="14" width="32.13"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" customWidth="1"/>
+    <col min="5" max="5" width="44" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="64.7109375" customWidth="1"/>
+    <col min="8" max="8" width="74.5703125" customWidth="1"/>
+    <col min="9" max="9" width="66.140625" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" customWidth="1"/>
+    <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" customWidth="1"/>
+    <col min="13" max="13" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" hidden="1">
+    <row r="1" spans="1:26" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" hidden="1">
+    <row r="2" spans="1:26" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" hidden="1">
+    <row r="3" spans="1:26" ht="20.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1895,7 +1503,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" hidden="1">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
         <v>2</v>
@@ -1912,7 +1520,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" hidden="1">
+    <row r="5" spans="1:26" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1927,389 +1535,380 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" ht="186.0" customHeight="1">
-      <c r="A7" s="12" t="s">
+    </row>
+    <row r="7" spans="1:26" ht="186" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="20"/>
-    </row>
-    <row r="8" ht="186.75" customHeight="1">
-      <c r="A8" s="21" t="s">
+    </row>
+    <row r="8" spans="1:26" ht="186.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="21" t="s">
+      <c r="J8" s="36"/>
+      <c r="K8" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="24" t="s">
+      <c r="M8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+    </row>
+    <row r="9" spans="1:26" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="12" t="s">
+      <c r="B9" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="E9" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+    </row>
+    <row r="10" spans="1:26" ht="255" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+    </row>
+    <row r="12" spans="1:26" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="15" t="s">
+      <c r="D12" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-    </row>
-    <row r="10" ht="255.0" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="34" t="s">
+      <c r="G12" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+    </row>
+    <row r="13" spans="1:26" ht="214.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" s="37"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="N11" s="45"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="M12" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-    </row>
-    <row r="13" ht="214.5" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="51" t="s">
+      <c r="E13" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="54" t="s">
+      <c r="F13" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="G13" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="H13" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="56" t="s">
+      <c r="I13" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="57" t="s">
+      <c r="J13" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="53" t="s">
+      <c r="K13" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="58" t="s">
+      <c r="L13" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="L13" s="53" t="s">
+      <c r="M13" s="54" t="s">
         <v>91</v>
-      </c>
-      <c r="M13" s="59" t="s">
-        <v>92</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2324,3470 +1923,3454 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="47" t="s">
+    </row>
+    <row r="14" spans="1:26" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="C14" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="D14" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="E14" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="40" t="s">
+      <c r="H14" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="I14" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="J14" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="60" t="s">
+      <c r="K14" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="60" t="s">
+      <c r="L14" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="L14" s="60" t="s">
+      <c r="M14" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="M14" s="34" t="s">
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+    </row>
+    <row r="15" spans="1:26" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="12" t="s">
+      <c r="B15" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="C15" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="63" t="s">
+      <c r="F15" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="G15" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="65" t="s">
+      <c r="H15" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="66" t="s">
+      <c r="I15" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="J15" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="J15" s="67" t="s">
+      <c r="K15" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="K15" s="67" t="s">
+      <c r="L15" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="L15" s="67" t="s">
+      <c r="M15" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="M15" s="67" t="s">
+    </row>
+    <row r="16" spans="1:26" ht="202.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="16" ht="202.5" customHeight="1">
-      <c r="A16" s="68" t="s">
+      <c r="B16" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="C16" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="D16" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="70" t="s">
+      <c r="E16" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="F16" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="71" t="s">
+      <c r="H16" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+    </row>
+    <row r="17" spans="1:26" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="M17" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+    </row>
+    <row r="19" spans="1:26" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="J16" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="K16" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="L16" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="M16" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="75"/>
-      <c r="T16" s="75"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="75"/>
-      <c r="W16" s="75"/>
-      <c r="X16" s="75"/>
-      <c r="Y16" s="75"/>
-      <c r="Z16" s="75"/>
-      <c r="AA16" s="75"/>
-    </row>
-    <row r="17" ht="159.0" customHeight="1">
-      <c r="A17" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" s="76" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="G19" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="M19" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+    </row>
+    <row r="20" spans="1:26" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" s="79" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="J17" s="81" t="s">
-        <v>133</v>
-      </c>
-      <c r="K17" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="L17" s="82" t="s">
-        <v>135</v>
-      </c>
-      <c r="M17" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" ht="148.5" customHeight="1">
-      <c r="A18" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H18" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="L18" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="M18" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="88"/>
-      <c r="U18" s="88"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="88"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="88"/>
-    </row>
-    <row r="19" ht="131.25" customHeight="1">
-      <c r="A19" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="15" t="s">
+      <c r="D20" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="M20" s="60" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="15" t="s">
+      <c r="D21" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" s="35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="89" t="s">
-        <v>150</v>
-      </c>
-      <c r="H19" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="I19" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="M19" s="87" t="s">
-        <v>156</v>
-      </c>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="90"/>
-      <c r="AA19" s="90"/>
-    </row>
-    <row r="20" ht="127.5" customHeight="1">
-      <c r="A20" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" s="91" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="91" t="s">
+      <c r="G22" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" s="91" t="s">
-        <v>160</v>
-      </c>
-      <c r="F20" s="91" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="92" t="s">
-        <v>161</v>
-      </c>
-      <c r="H20" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="I20" s="91" t="s">
-        <v>163</v>
-      </c>
-      <c r="J20" s="94" t="s">
-        <v>164</v>
-      </c>
-      <c r="K20" s="95" t="s">
-        <v>165</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="M20" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="N20" s="96" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" ht="127.5" customHeight="1">
-      <c r="A21" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="91" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="97" t="s">
-        <v>170</v>
-      </c>
-      <c r="F21" s="91" t="s">
-        <v>172</v>
-      </c>
-      <c r="G21" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="98" t="s">
-        <v>174</v>
-      </c>
-      <c r="I21" s="99" t="s">
-        <v>175</v>
-      </c>
-      <c r="J21" s="100" t="s">
-        <v>176</v>
-      </c>
-      <c r="K21" s="101" t="s">
-        <v>177</v>
-      </c>
-      <c r="L21" s="102" t="s">
-        <v>178</v>
-      </c>
-      <c r="M21" s="103" t="s">
-        <v>179</v>
-      </c>
-      <c r="N21" s="104"/>
-    </row>
-    <row r="22" ht="127.5" customHeight="1">
-      <c r="A22" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="91" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="105" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="105" t="s">
-        <v>182</v>
-      </c>
-      <c r="F22" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="106" t="s">
-        <v>183</v>
-      </c>
-      <c r="H22" s="107" t="s">
-        <v>184</v>
-      </c>
-      <c r="I22" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="J22" s="105" t="s">
-        <v>186</v>
-      </c>
-      <c r="K22" s="108" t="s">
+      <c r="D23" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="L22" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="M22" s="106" t="s">
+      <c r="E23" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="N22" s="104"/>
-    </row>
-    <row r="23" ht="127.5" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="F23" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="H23" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="C23" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="91" t="s">
+      <c r="I23" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="J23" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="F23" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="92" t="s">
+      <c r="K23" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="H23" s="110" t="s">
+      <c r="L23" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="I23" s="91" t="s">
+      <c r="M23" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="J23" s="91" t="s">
+    </row>
+    <row r="24" spans="1:26" ht="253.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="B24" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="L23" s="91" t="s">
+      <c r="C24" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="M23" s="103" t="s">
+      <c r="E24" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="N23" s="104"/>
-    </row>
-    <row r="24" ht="234.75" customHeight="1">
-      <c r="A24" s="12" t="s">
+      <c r="F24" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="B24" s="91" t="s">
+      <c r="H24" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="I24" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="C24" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="111" t="s">
+      <c r="J24" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="E24" s="112" t="s">
+      <c r="K24" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="F24" s="111" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="113" t="s">
+      <c r="L24" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="M24" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="H24" s="114" t="s">
-        <v>205</v>
-      </c>
-      <c r="I24" s="115" t="s">
-        <v>206</v>
-      </c>
-      <c r="J24" s="116" t="s">
-        <v>207</v>
-      </c>
-      <c r="K24" s="117" t="s">
-        <v>208</v>
-      </c>
-      <c r="L24" s="118" t="s">
-        <v>89</v>
-      </c>
-      <c r="M24" s="119" t="s">
-        <v>209</v>
-      </c>
-      <c r="N24" s="120" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="121"/>
-      <c r="C25" s="122"/>
-      <c r="H25" s="123"/>
+    </row>
+    <row r="25" spans="1:26" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="A25" s="1"/>
+      <c r="C25" s="21"/>
+      <c r="H25" s="20"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26">
-      <c r="A26" s="121"/>
-      <c r="H26" s="124"/>
+    <row r="26" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="H26" s="22"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27">
-      <c r="A27" s="121"/>
-      <c r="H27" s="123"/>
+    <row r="27" spans="1:26" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A27" s="1"/>
+      <c r="H27" s="20"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28">
-      <c r="A28" s="121"/>
-      <c r="H28" s="124"/>
+    <row r="28" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="H28" s="22"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29">
-      <c r="A29" s="121"/>
-      <c r="H29" s="123"/>
+    <row r="29" spans="1:26" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A29" s="1"/>
+      <c r="H29" s="20"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30">
-      <c r="A30" s="121"/>
-      <c r="H30" s="124"/>
+    <row r="30" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="H30" s="22"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31">
-      <c r="A31" s="121"/>
+    <row r="31" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32">
-      <c r="A32" s="121"/>
+    <row r="32" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33">
-      <c r="A33" s="121"/>
+    <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34">
-      <c r="A34" s="121"/>
+    <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35">
-      <c r="A35" s="121"/>
+    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36">
-      <c r="A36" s="121"/>
+    <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37">
-      <c r="A37" s="121"/>
+    <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J71" s="2"/>
     </row>
-    <row r="72">
+    <row r="72" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J72" s="2"/>
     </row>
-    <row r="73">
+    <row r="73" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J74" s="2"/>
     </row>
-    <row r="75">
+    <row r="75" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J75" s="2"/>
     </row>
-    <row r="76">
+    <row r="76" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J76" s="2"/>
     </row>
-    <row r="77">
+    <row r="77" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J77" s="2"/>
     </row>
-    <row r="78">
+    <row r="78" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J78" s="2"/>
     </row>
-    <row r="79">
+    <row r="79" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J79" s="2"/>
     </row>
-    <row r="80">
+    <row r="80" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J80" s="2"/>
     </row>
-    <row r="81">
+    <row r="81" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J81" s="2"/>
     </row>
-    <row r="82">
+    <row r="82" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J82" s="2"/>
     </row>
-    <row r="83">
+    <row r="83" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J83" s="2"/>
     </row>
-    <row r="84">
+    <row r="84" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J84" s="2"/>
     </row>
-    <row r="85">
+    <row r="85" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J85" s="2"/>
     </row>
-    <row r="86">
+    <row r="86" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J86" s="2"/>
     </row>
-    <row r="87">
+    <row r="87" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J87" s="2"/>
     </row>
-    <row r="88">
+    <row r="88" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J88" s="2"/>
     </row>
-    <row r="89">
+    <row r="89" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J89" s="2"/>
     </row>
-    <row r="90">
+    <row r="90" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J90" s="2"/>
     </row>
-    <row r="91">
+    <row r="91" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J91" s="2"/>
     </row>
-    <row r="92">
+    <row r="92" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J92" s="2"/>
     </row>
-    <row r="93">
+    <row r="93" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J93" s="2"/>
     </row>
-    <row r="94">
+    <row r="94" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J94" s="2"/>
     </row>
-    <row r="95">
+    <row r="95" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J95" s="2"/>
     </row>
-    <row r="96">
+    <row r="96" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J96" s="2"/>
     </row>
-    <row r="97">
+    <row r="97" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J97" s="2"/>
     </row>
-    <row r="98">
+    <row r="98" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J98" s="2"/>
     </row>
-    <row r="99">
+    <row r="99" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J99" s="2"/>
     </row>
-    <row r="100">
+    <row r="100" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J100" s="2"/>
     </row>
-    <row r="101">
+    <row r="101" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J101" s="2"/>
     </row>
-    <row r="102">
+    <row r="102" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J102" s="2"/>
     </row>
-    <row r="103">
+    <row r="103" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J103" s="2"/>
     </row>
-    <row r="104">
+    <row r="104" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J104" s="2"/>
     </row>
-    <row r="105">
+    <row r="105" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J105" s="2"/>
     </row>
-    <row r="106">
+    <row r="106" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J106" s="2"/>
     </row>
-    <row r="107">
+    <row r="107" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J107" s="2"/>
     </row>
-    <row r="108">
+    <row r="108" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J108" s="2"/>
     </row>
-    <row r="109">
+    <row r="109" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J109" s="2"/>
     </row>
-    <row r="110">
+    <row r="110" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J110" s="2"/>
     </row>
-    <row r="111">
+    <row r="111" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J111" s="2"/>
     </row>
-    <row r="112">
+    <row r="112" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J112" s="2"/>
     </row>
-    <row r="113">
+    <row r="113" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J113" s="2"/>
     </row>
-    <row r="114">
+    <row r="114" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J114" s="2"/>
     </row>
-    <row r="115">
+    <row r="115" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J115" s="2"/>
     </row>
-    <row r="116">
+    <row r="116" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J116" s="2"/>
     </row>
-    <row r="117">
+    <row r="117" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J117" s="2"/>
     </row>
-    <row r="118">
+    <row r="118" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J118" s="2"/>
     </row>
-    <row r="119">
+    <row r="119" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J119" s="2"/>
     </row>
-    <row r="120">
+    <row r="120" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J120" s="2"/>
     </row>
-    <row r="121">
+    <row r="121" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J121" s="2"/>
     </row>
-    <row r="122">
+    <row r="122" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J122" s="2"/>
     </row>
-    <row r="123">
+    <row r="123" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J123" s="2"/>
     </row>
-    <row r="124">
+    <row r="124" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J124" s="2"/>
     </row>
-    <row r="125">
+    <row r="125" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J125" s="2"/>
     </row>
-    <row r="126">
+    <row r="126" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J126" s="2"/>
     </row>
-    <row r="127">
+    <row r="127" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J127" s="2"/>
     </row>
-    <row r="128">
+    <row r="128" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J128" s="2"/>
     </row>
-    <row r="129">
+    <row r="129" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J129" s="2"/>
     </row>
-    <row r="130">
+    <row r="130" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J130" s="2"/>
     </row>
-    <row r="131">
+    <row r="131" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J131" s="2"/>
     </row>
-    <row r="132">
+    <row r="132" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J132" s="2"/>
     </row>
-    <row r="133">
+    <row r="133" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J133" s="2"/>
     </row>
-    <row r="134">
+    <row r="134" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J134" s="2"/>
     </row>
-    <row r="135">
+    <row r="135" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J135" s="2"/>
     </row>
-    <row r="136">
+    <row r="136" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J136" s="2"/>
     </row>
-    <row r="137">
+    <row r="137" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J137" s="2"/>
     </row>
-    <row r="138">
+    <row r="138" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J138" s="2"/>
     </row>
-    <row r="139">
+    <row r="139" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J139" s="2"/>
     </row>
-    <row r="140">
+    <row r="140" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J140" s="2"/>
     </row>
-    <row r="141">
+    <row r="141" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J141" s="2"/>
     </row>
-    <row r="142">
+    <row r="142" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J142" s="2"/>
     </row>
-    <row r="143">
+    <row r="143" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J143" s="2"/>
     </row>
-    <row r="144">
+    <row r="144" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J144" s="2"/>
     </row>
-    <row r="145">
+    <row r="145" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J145" s="2"/>
     </row>
-    <row r="146">
+    <row r="146" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J146" s="2"/>
     </row>
-    <row r="147">
+    <row r="147" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J147" s="2"/>
     </row>
-    <row r="148">
+    <row r="148" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J148" s="2"/>
     </row>
-    <row r="149">
+    <row r="149" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J149" s="2"/>
     </row>
-    <row r="150">
+    <row r="150" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J150" s="2"/>
     </row>
-    <row r="151">
+    <row r="151" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J151" s="2"/>
     </row>
-    <row r="152">
+    <row r="152" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J152" s="2"/>
     </row>
-    <row r="153">
+    <row r="153" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J153" s="2"/>
     </row>
-    <row r="154">
+    <row r="154" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J154" s="2"/>
     </row>
-    <row r="155">
+    <row r="155" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J155" s="2"/>
     </row>
-    <row r="156">
+    <row r="156" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J156" s="2"/>
     </row>
-    <row r="157">
+    <row r="157" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J157" s="2"/>
     </row>
-    <row r="158">
+    <row r="158" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J158" s="2"/>
     </row>
-    <row r="159">
+    <row r="159" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J159" s="2"/>
     </row>
-    <row r="160">
+    <row r="160" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J160" s="2"/>
     </row>
-    <row r="161">
+    <row r="161" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J161" s="2"/>
     </row>
-    <row r="162">
+    <row r="162" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J162" s="2"/>
     </row>
-    <row r="163">
+    <row r="163" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J163" s="2"/>
     </row>
-    <row r="164">
+    <row r="164" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J164" s="2"/>
     </row>
-    <row r="165">
+    <row r="165" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J165" s="2"/>
     </row>
-    <row r="166">
+    <row r="166" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J166" s="2"/>
     </row>
-    <row r="167">
+    <row r="167" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J167" s="2"/>
     </row>
-    <row r="168">
+    <row r="168" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J168" s="2"/>
     </row>
-    <row r="169">
+    <row r="169" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J169" s="2"/>
     </row>
-    <row r="170">
+    <row r="170" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J170" s="2"/>
     </row>
-    <row r="171">
+    <row r="171" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J171" s="2"/>
     </row>
-    <row r="172">
+    <row r="172" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J172" s="2"/>
     </row>
-    <row r="173">
+    <row r="173" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J173" s="2"/>
     </row>
-    <row r="174">
+    <row r="174" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J174" s="2"/>
     </row>
-    <row r="175">
+    <row r="175" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J175" s="2"/>
     </row>
-    <row r="176">
+    <row r="176" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J176" s="2"/>
     </row>
-    <row r="177">
+    <row r="177" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J177" s="2"/>
     </row>
-    <row r="178">
+    <row r="178" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J178" s="2"/>
     </row>
-    <row r="179">
+    <row r="179" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J179" s="2"/>
     </row>
-    <row r="180">
+    <row r="180" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J180" s="2"/>
     </row>
-    <row r="181">
+    <row r="181" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J181" s="2"/>
     </row>
-    <row r="182">
+    <row r="182" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J182" s="2"/>
     </row>
-    <row r="183">
+    <row r="183" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J183" s="2"/>
     </row>
-    <row r="184">
+    <row r="184" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J184" s="2"/>
     </row>
-    <row r="185">
+    <row r="185" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J185" s="2"/>
     </row>
-    <row r="186">
+    <row r="186" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J186" s="2"/>
     </row>
-    <row r="187">
+    <row r="187" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J187" s="2"/>
     </row>
-    <row r="188">
+    <row r="188" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J188" s="2"/>
     </row>
-    <row r="189">
+    <row r="189" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J189" s="2"/>
     </row>
-    <row r="190">
+    <row r="190" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J190" s="2"/>
     </row>
-    <row r="191">
+    <row r="191" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J191" s="2"/>
     </row>
-    <row r="192">
+    <row r="192" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J192" s="2"/>
     </row>
-    <row r="193">
+    <row r="193" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J193" s="2"/>
     </row>
-    <row r="194">
+    <row r="194" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J194" s="2"/>
     </row>
-    <row r="195">
+    <row r="195" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J195" s="2"/>
     </row>
-    <row r="196">
+    <row r="196" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J196" s="2"/>
     </row>
-    <row r="197">
+    <row r="197" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J197" s="2"/>
     </row>
-    <row r="198">
+    <row r="198" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J198" s="2"/>
     </row>
-    <row r="199">
+    <row r="199" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J199" s="2"/>
     </row>
-    <row r="200">
+    <row r="200" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J200" s="2"/>
     </row>
-    <row r="201">
+    <row r="201" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J201" s="2"/>
     </row>
-    <row r="202">
+    <row r="202" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J202" s="2"/>
     </row>
-    <row r="203">
+    <row r="203" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J203" s="2"/>
     </row>
-    <row r="204">
+    <row r="204" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J204" s="2"/>
     </row>
-    <row r="205">
+    <row r="205" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J205" s="2"/>
     </row>
-    <row r="206">
+    <row r="206" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J206" s="2"/>
     </row>
-    <row r="207">
+    <row r="207" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J207" s="2"/>
     </row>
-    <row r="208">
+    <row r="208" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J208" s="2"/>
     </row>
-    <row r="209">
+    <row r="209" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J209" s="2"/>
     </row>
-    <row r="210">
+    <row r="210" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J210" s="2"/>
     </row>
-    <row r="211">
+    <row r="211" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J211" s="2"/>
     </row>
-    <row r="212">
+    <row r="212" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J212" s="2"/>
     </row>
-    <row r="213">
+    <row r="213" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J213" s="2"/>
     </row>
-    <row r="214">
+    <row r="214" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J214" s="2"/>
     </row>
-    <row r="215">
+    <row r="215" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J215" s="2"/>
     </row>
-    <row r="216">
+    <row r="216" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J216" s="2"/>
     </row>
-    <row r="217">
+    <row r="217" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J217" s="2"/>
     </row>
-    <row r="218">
+    <row r="218" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J218" s="2"/>
     </row>
-    <row r="219">
+    <row r="219" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J219" s="2"/>
     </row>
-    <row r="220">
+    <row r="220" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J220" s="2"/>
     </row>
-    <row r="221">
+    <row r="221" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J221" s="2"/>
     </row>
-    <row r="222">
+    <row r="222" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J222" s="2"/>
     </row>
-    <row r="223">
+    <row r="223" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J223" s="2"/>
     </row>
-    <row r="224">
+    <row r="224" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J224" s="2"/>
     </row>
-    <row r="225">
+    <row r="225" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J225" s="2"/>
     </row>
-    <row r="226">
+    <row r="226" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J226" s="2"/>
     </row>
-    <row r="227">
+    <row r="227" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J227" s="2"/>
     </row>
-    <row r="228">
+    <row r="228" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J228" s="2"/>
     </row>
-    <row r="229">
+    <row r="229" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J229" s="2"/>
     </row>
-    <row r="230">
+    <row r="230" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J230" s="2"/>
     </row>
-    <row r="231">
+    <row r="231" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J231" s="2"/>
     </row>
-    <row r="232">
+    <row r="232" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J232" s="2"/>
     </row>
-    <row r="233">
+    <row r="233" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J233" s="2"/>
     </row>
-    <row r="234">
+    <row r="234" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J234" s="2"/>
     </row>
-    <row r="235">
+    <row r="235" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J235" s="2"/>
     </row>
-    <row r="236">
+    <row r="236" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J236" s="2"/>
     </row>
-    <row r="237">
+    <row r="237" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J237" s="2"/>
     </row>
-    <row r="238">
+    <row r="238" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J238" s="2"/>
     </row>
-    <row r="239">
+    <row r="239" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J239" s="2"/>
     </row>
-    <row r="240">
+    <row r="240" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J240" s="2"/>
     </row>
-    <row r="241">
+    <row r="241" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J241" s="2"/>
     </row>
-    <row r="242">
+    <row r="242" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J242" s="2"/>
     </row>
-    <row r="243">
+    <row r="243" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J243" s="2"/>
     </row>
-    <row r="244">
+    <row r="244" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J244" s="2"/>
     </row>
-    <row r="245">
+    <row r="245" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J245" s="2"/>
     </row>
-    <row r="246">
+    <row r="246" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J246" s="2"/>
     </row>
-    <row r="247">
+    <row r="247" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J247" s="2"/>
     </row>
-    <row r="248">
+    <row r="248" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J248" s="2"/>
     </row>
-    <row r="249">
+    <row r="249" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J249" s="2"/>
     </row>
-    <row r="250">
+    <row r="250" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J250" s="2"/>
     </row>
-    <row r="251">
+    <row r="251" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J251" s="2"/>
     </row>
-    <row r="252">
+    <row r="252" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J252" s="2"/>
     </row>
-    <row r="253">
+    <row r="253" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J253" s="2"/>
     </row>
-    <row r="254">
+    <row r="254" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J254" s="2"/>
     </row>
-    <row r="255">
+    <row r="255" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J255" s="2"/>
     </row>
-    <row r="256">
+    <row r="256" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J256" s="2"/>
     </row>
-    <row r="257">
+    <row r="257" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J257" s="2"/>
     </row>
-    <row r="258">
+    <row r="258" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J258" s="2"/>
     </row>
-    <row r="259">
+    <row r="259" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J259" s="2"/>
     </row>
-    <row r="260">
+    <row r="260" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J260" s="2"/>
     </row>
-    <row r="261">
+    <row r="261" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J261" s="2"/>
     </row>
-    <row r="262">
+    <row r="262" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J262" s="2"/>
     </row>
-    <row r="263">
+    <row r="263" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J263" s="2"/>
     </row>
-    <row r="264">
+    <row r="264" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J264" s="2"/>
     </row>
-    <row r="265">
+    <row r="265" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J265" s="2"/>
     </row>
-    <row r="266">
+    <row r="266" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J266" s="2"/>
     </row>
-    <row r="267">
+    <row r="267" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J267" s="2"/>
     </row>
-    <row r="268">
+    <row r="268" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J268" s="2"/>
     </row>
-    <row r="269">
+    <row r="269" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J269" s="2"/>
     </row>
-    <row r="270">
+    <row r="270" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J270" s="2"/>
     </row>
-    <row r="271">
+    <row r="271" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J271" s="2"/>
     </row>
-    <row r="272">
+    <row r="272" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J272" s="2"/>
     </row>
-    <row r="273">
+    <row r="273" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J273" s="2"/>
     </row>
-    <row r="274">
+    <row r="274" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J274" s="2"/>
     </row>
-    <row r="275">
+    <row r="275" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J275" s="2"/>
     </row>
-    <row r="276">
+    <row r="276" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J276" s="2"/>
     </row>
-    <row r="277">
+    <row r="277" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J277" s="2"/>
     </row>
-    <row r="278">
+    <row r="278" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J278" s="2"/>
     </row>
-    <row r="279">
+    <row r="279" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J279" s="2"/>
     </row>
-    <row r="280">
+    <row r="280" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J280" s="2"/>
     </row>
-    <row r="281">
+    <row r="281" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J281" s="2"/>
     </row>
-    <row r="282">
+    <row r="282" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J282" s="2"/>
     </row>
-    <row r="283">
+    <row r="283" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J283" s="2"/>
     </row>
-    <row r="284">
+    <row r="284" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J284" s="2"/>
     </row>
-    <row r="285">
+    <row r="285" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J285" s="2"/>
     </row>
-    <row r="286">
+    <row r="286" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J286" s="2"/>
     </row>
-    <row r="287">
+    <row r="287" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J287" s="2"/>
     </row>
-    <row r="288">
+    <row r="288" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J288" s="2"/>
     </row>
-    <row r="289">
+    <row r="289" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J289" s="2"/>
     </row>
-    <row r="290">
+    <row r="290" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J290" s="2"/>
     </row>
-    <row r="291">
+    <row r="291" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J291" s="2"/>
     </row>
-    <row r="292">
+    <row r="292" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J292" s="2"/>
     </row>
-    <row r="293">
+    <row r="293" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J293" s="2"/>
     </row>
-    <row r="294">
+    <row r="294" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J294" s="2"/>
     </row>
-    <row r="295">
+    <row r="295" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J295" s="2"/>
     </row>
-    <row r="296">
+    <row r="296" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J296" s="2"/>
     </row>
-    <row r="297">
+    <row r="297" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J297" s="2"/>
     </row>
-    <row r="298">
+    <row r="298" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J298" s="2"/>
     </row>
-    <row r="299">
+    <row r="299" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J299" s="2"/>
     </row>
-    <row r="300">
+    <row r="300" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J300" s="2"/>
     </row>
-    <row r="301">
+    <row r="301" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J301" s="2"/>
     </row>
-    <row r="302">
+    <row r="302" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J302" s="2"/>
     </row>
-    <row r="303">
+    <row r="303" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J303" s="2"/>
     </row>
-    <row r="304">
+    <row r="304" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J304" s="2"/>
     </row>
-    <row r="305">
+    <row r="305" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J305" s="2"/>
     </row>
-    <row r="306">
+    <row r="306" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J306" s="2"/>
     </row>
-    <row r="307">
+    <row r="307" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J307" s="2"/>
     </row>
-    <row r="308">
+    <row r="308" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J308" s="2"/>
     </row>
-    <row r="309">
+    <row r="309" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J309" s="2"/>
     </row>
-    <row r="310">
+    <row r="310" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J310" s="2"/>
     </row>
-    <row r="311">
+    <row r="311" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J311" s="2"/>
     </row>
-    <row r="312">
+    <row r="312" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J312" s="2"/>
     </row>
-    <row r="313">
+    <row r="313" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J313" s="2"/>
     </row>
-    <row r="314">
+    <row r="314" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J314" s="2"/>
     </row>
-    <row r="315">
+    <row r="315" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J315" s="2"/>
     </row>
-    <row r="316">
+    <row r="316" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J316" s="2"/>
     </row>
-    <row r="317">
+    <row r="317" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J317" s="2"/>
     </row>
-    <row r="318">
+    <row r="318" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J318" s="2"/>
     </row>
-    <row r="319">
+    <row r="319" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J319" s="2"/>
     </row>
-    <row r="320">
+    <row r="320" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J320" s="2"/>
     </row>
-    <row r="321">
+    <row r="321" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J321" s="2"/>
     </row>
-    <row r="322">
+    <row r="322" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J322" s="2"/>
     </row>
-    <row r="323">
+    <row r="323" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J323" s="2"/>
     </row>
-    <row r="324">
+    <row r="324" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J324" s="2"/>
     </row>
-    <row r="325">
+    <row r="325" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J325" s="2"/>
     </row>
-    <row r="326">
+    <row r="326" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J326" s="2"/>
     </row>
-    <row r="327">
+    <row r="327" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J327" s="2"/>
     </row>
-    <row r="328">
+    <row r="328" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J328" s="2"/>
     </row>
-    <row r="329">
+    <row r="329" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J329" s="2"/>
     </row>
-    <row r="330">
+    <row r="330" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J330" s="2"/>
     </row>
-    <row r="331">
+    <row r="331" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J331" s="2"/>
     </row>
-    <row r="332">
+    <row r="332" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J332" s="2"/>
     </row>
-    <row r="333">
+    <row r="333" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J333" s="2"/>
     </row>
-    <row r="334">
+    <row r="334" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J334" s="2"/>
     </row>
-    <row r="335">
+    <row r="335" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J335" s="2"/>
     </row>
-    <row r="336">
+    <row r="336" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J336" s="2"/>
     </row>
-    <row r="337">
+    <row r="337" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J337" s="2"/>
     </row>
-    <row r="338">
+    <row r="338" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J338" s="2"/>
     </row>
-    <row r="339">
+    <row r="339" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J339" s="2"/>
     </row>
-    <row r="340">
+    <row r="340" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J340" s="2"/>
     </row>
-    <row r="341">
+    <row r="341" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J341" s="2"/>
     </row>
-    <row r="342">
+    <row r="342" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J342" s="2"/>
     </row>
-    <row r="343">
+    <row r="343" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J343" s="2"/>
     </row>
-    <row r="344">
+    <row r="344" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J344" s="2"/>
     </row>
-    <row r="345">
+    <row r="345" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J345" s="2"/>
     </row>
-    <row r="346">
+    <row r="346" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J346" s="2"/>
     </row>
-    <row r="347">
+    <row r="347" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J347" s="2"/>
     </row>
-    <row r="348">
+    <row r="348" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J348" s="2"/>
     </row>
-    <row r="349">
+    <row r="349" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J349" s="2"/>
     </row>
-    <row r="350">
+    <row r="350" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J350" s="2"/>
     </row>
-    <row r="351">
+    <row r="351" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J351" s="2"/>
     </row>
-    <row r="352">
+    <row r="352" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J352" s="2"/>
     </row>
-    <row r="353">
+    <row r="353" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J353" s="2"/>
     </row>
-    <row r="354">
+    <row r="354" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J354" s="2"/>
     </row>
-    <row r="355">
+    <row r="355" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J355" s="2"/>
     </row>
-    <row r="356">
+    <row r="356" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J356" s="2"/>
     </row>
-    <row r="357">
+    <row r="357" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J357" s="2"/>
     </row>
-    <row r="358">
+    <row r="358" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J358" s="2"/>
     </row>
-    <row r="359">
+    <row r="359" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J359" s="2"/>
     </row>
-    <row r="360">
+    <row r="360" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J360" s="2"/>
     </row>
-    <row r="361">
+    <row r="361" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J361" s="2"/>
     </row>
-    <row r="362">
+    <row r="362" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J362" s="2"/>
     </row>
-    <row r="363">
+    <row r="363" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J363" s="2"/>
     </row>
-    <row r="364">
+    <row r="364" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J364" s="2"/>
     </row>
-    <row r="365">
+    <row r="365" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J365" s="2"/>
     </row>
-    <row r="366">
+    <row r="366" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J366" s="2"/>
     </row>
-    <row r="367">
+    <row r="367" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J367" s="2"/>
     </row>
-    <row r="368">
+    <row r="368" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J368" s="2"/>
     </row>
-    <row r="369">
+    <row r="369" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J369" s="2"/>
     </row>
-    <row r="370">
+    <row r="370" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J370" s="2"/>
     </row>
-    <row r="371">
+    <row r="371" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J371" s="2"/>
     </row>
-    <row r="372">
+    <row r="372" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J372" s="2"/>
     </row>
-    <row r="373">
+    <row r="373" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J373" s="2"/>
     </row>
-    <row r="374">
+    <row r="374" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J374" s="2"/>
     </row>
-    <row r="375">
+    <row r="375" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J375" s="2"/>
     </row>
-    <row r="376">
+    <row r="376" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J376" s="2"/>
     </row>
-    <row r="377">
+    <row r="377" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J377" s="2"/>
     </row>
-    <row r="378">
+    <row r="378" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J378" s="2"/>
     </row>
-    <row r="379">
+    <row r="379" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J379" s="2"/>
     </row>
-    <row r="380">
+    <row r="380" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J380" s="2"/>
     </row>
-    <row r="381">
+    <row r="381" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J381" s="2"/>
     </row>
-    <row r="382">
+    <row r="382" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J382" s="2"/>
     </row>
-    <row r="383">
+    <row r="383" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J383" s="2"/>
     </row>
-    <row r="384">
+    <row r="384" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J384" s="2"/>
     </row>
-    <row r="385">
+    <row r="385" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J385" s="2"/>
     </row>
-    <row r="386">
+    <row r="386" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J386" s="2"/>
     </row>
-    <row r="387">
+    <row r="387" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J387" s="2"/>
     </row>
-    <row r="388">
+    <row r="388" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J388" s="2"/>
     </row>
-    <row r="389">
+    <row r="389" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J389" s="2"/>
     </row>
-    <row r="390">
+    <row r="390" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J390" s="2"/>
     </row>
-    <row r="391">
+    <row r="391" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J391" s="2"/>
     </row>
-    <row r="392">
+    <row r="392" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J392" s="2"/>
     </row>
-    <row r="393">
+    <row r="393" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J393" s="2"/>
     </row>
-    <row r="394">
+    <row r="394" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J394" s="2"/>
     </row>
-    <row r="395">
+    <row r="395" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J395" s="2"/>
     </row>
-    <row r="396">
+    <row r="396" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J396" s="2"/>
     </row>
-    <row r="397">
+    <row r="397" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J397" s="2"/>
     </row>
-    <row r="398">
+    <row r="398" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J398" s="2"/>
     </row>
-    <row r="399">
+    <row r="399" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J399" s="2"/>
     </row>
-    <row r="400">
+    <row r="400" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J400" s="2"/>
     </row>
-    <row r="401">
+    <row r="401" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J401" s="2"/>
     </row>
-    <row r="402">
+    <row r="402" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J402" s="2"/>
     </row>
-    <row r="403">
+    <row r="403" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J403" s="2"/>
     </row>
-    <row r="404">
+    <row r="404" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J404" s="2"/>
     </row>
-    <row r="405">
+    <row r="405" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J405" s="2"/>
     </row>
-    <row r="406">
+    <row r="406" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J406" s="2"/>
     </row>
-    <row r="407">
+    <row r="407" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J407" s="2"/>
     </row>
-    <row r="408">
+    <row r="408" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J408" s="2"/>
     </row>
-    <row r="409">
+    <row r="409" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J409" s="2"/>
     </row>
-    <row r="410">
+    <row r="410" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J410" s="2"/>
     </row>
-    <row r="411">
+    <row r="411" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J411" s="2"/>
     </row>
-    <row r="412">
+    <row r="412" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J412" s="2"/>
     </row>
-    <row r="413">
+    <row r="413" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J413" s="2"/>
     </row>
-    <row r="414">
+    <row r="414" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J414" s="2"/>
     </row>
-    <row r="415">
+    <row r="415" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J415" s="2"/>
     </row>
-    <row r="416">
+    <row r="416" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J416" s="2"/>
     </row>
-    <row r="417">
+    <row r="417" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J417" s="2"/>
     </row>
-    <row r="418">
+    <row r="418" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J418" s="2"/>
     </row>
-    <row r="419">
+    <row r="419" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J419" s="2"/>
     </row>
-    <row r="420">
+    <row r="420" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J420" s="2"/>
     </row>
-    <row r="421">
+    <row r="421" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J421" s="2"/>
     </row>
-    <row r="422">
+    <row r="422" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J422" s="2"/>
     </row>
-    <row r="423">
+    <row r="423" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J423" s="2"/>
     </row>
-    <row r="424">
+    <row r="424" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J424" s="2"/>
     </row>
-    <row r="425">
+    <row r="425" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J425" s="2"/>
     </row>
-    <row r="426">
+    <row r="426" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J426" s="2"/>
     </row>
-    <row r="427">
+    <row r="427" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J427" s="2"/>
     </row>
-    <row r="428">
+    <row r="428" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J428" s="2"/>
     </row>
-    <row r="429">
+    <row r="429" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J429" s="2"/>
     </row>
-    <row r="430">
+    <row r="430" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J430" s="2"/>
     </row>
-    <row r="431">
+    <row r="431" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J431" s="2"/>
     </row>
-    <row r="432">
+    <row r="432" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J432" s="2"/>
     </row>
-    <row r="433">
+    <row r="433" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J433" s="2"/>
     </row>
-    <row r="434">
+    <row r="434" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J434" s="2"/>
     </row>
-    <row r="435">
+    <row r="435" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J435" s="2"/>
     </row>
-    <row r="436">
+    <row r="436" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J436" s="2"/>
     </row>
-    <row r="437">
+    <row r="437" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J437" s="2"/>
     </row>
-    <row r="438">
+    <row r="438" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J438" s="2"/>
     </row>
-    <row r="439">
+    <row r="439" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J439" s="2"/>
     </row>
-    <row r="440">
+    <row r="440" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J440" s="2"/>
     </row>
-    <row r="441">
+    <row r="441" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J441" s="2"/>
     </row>
-    <row r="442">
+    <row r="442" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J442" s="2"/>
     </row>
-    <row r="443">
+    <row r="443" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J443" s="2"/>
     </row>
-    <row r="444">
+    <row r="444" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J444" s="2"/>
     </row>
-    <row r="445">
+    <row r="445" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J445" s="2"/>
     </row>
-    <row r="446">
+    <row r="446" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J446" s="2"/>
     </row>
-    <row r="447">
+    <row r="447" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J447" s="2"/>
     </row>
-    <row r="448">
+    <row r="448" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J448" s="2"/>
     </row>
-    <row r="449">
+    <row r="449" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J449" s="2"/>
     </row>
-    <row r="450">
+    <row r="450" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J450" s="2"/>
     </row>
-    <row r="451">
+    <row r="451" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J451" s="2"/>
     </row>
-    <row r="452">
+    <row r="452" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J452" s="2"/>
     </row>
-    <row r="453">
+    <row r="453" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J453" s="2"/>
     </row>
-    <row r="454">
+    <row r="454" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J454" s="2"/>
     </row>
-    <row r="455">
+    <row r="455" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J455" s="2"/>
     </row>
-    <row r="456">
+    <row r="456" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J456" s="2"/>
     </row>
-    <row r="457">
+    <row r="457" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J457" s="2"/>
     </row>
-    <row r="458">
+    <row r="458" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J458" s="2"/>
     </row>
-    <row r="459">
+    <row r="459" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J459" s="2"/>
     </row>
-    <row r="460">
+    <row r="460" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J460" s="2"/>
     </row>
-    <row r="461">
+    <row r="461" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J461" s="2"/>
     </row>
-    <row r="462">
+    <row r="462" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J462" s="2"/>
     </row>
-    <row r="463">
+    <row r="463" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J463" s="2"/>
     </row>
-    <row r="464">
+    <row r="464" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J464" s="2"/>
     </row>
-    <row r="465">
+    <row r="465" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J465" s="2"/>
     </row>
-    <row r="466">
+    <row r="466" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J466" s="2"/>
     </row>
-    <row r="467">
+    <row r="467" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J467" s="2"/>
     </row>
-    <row r="468">
+    <row r="468" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J468" s="2"/>
     </row>
-    <row r="469">
+    <row r="469" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J469" s="2"/>
     </row>
-    <row r="470">
+    <row r="470" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J470" s="2"/>
     </row>
-    <row r="471">
+    <row r="471" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J471" s="2"/>
     </row>
-    <row r="472">
+    <row r="472" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J472" s="2"/>
     </row>
-    <row r="473">
+    <row r="473" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J473" s="2"/>
     </row>
-    <row r="474">
+    <row r="474" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J474" s="2"/>
     </row>
-    <row r="475">
+    <row r="475" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J475" s="2"/>
     </row>
-    <row r="476">
+    <row r="476" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J476" s="2"/>
     </row>
-    <row r="477">
+    <row r="477" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J477" s="2"/>
     </row>
-    <row r="478">
+    <row r="478" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J478" s="2"/>
     </row>
-    <row r="479">
+    <row r="479" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J479" s="2"/>
     </row>
-    <row r="480">
+    <row r="480" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J480" s="2"/>
     </row>
-    <row r="481">
+    <row r="481" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J481" s="2"/>
     </row>
-    <row r="482">
+    <row r="482" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J482" s="2"/>
     </row>
-    <row r="483">
+    <row r="483" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J483" s="2"/>
     </row>
-    <row r="484">
+    <row r="484" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J484" s="2"/>
     </row>
-    <row r="485">
+    <row r="485" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J485" s="2"/>
     </row>
-    <row r="486">
+    <row r="486" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J486" s="2"/>
     </row>
-    <row r="487">
+    <row r="487" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J487" s="2"/>
     </row>
-    <row r="488">
+    <row r="488" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J488" s="2"/>
     </row>
-    <row r="489">
+    <row r="489" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J489" s="2"/>
     </row>
-    <row r="490">
+    <row r="490" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J490" s="2"/>
     </row>
-    <row r="491">
+    <row r="491" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J491" s="2"/>
     </row>
-    <row r="492">
+    <row r="492" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J492" s="2"/>
     </row>
-    <row r="493">
+    <row r="493" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J493" s="2"/>
     </row>
-    <row r="494">
+    <row r="494" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J494" s="2"/>
     </row>
-    <row r="495">
+    <row r="495" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J495" s="2"/>
     </row>
-    <row r="496">
+    <row r="496" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J496" s="2"/>
     </row>
-    <row r="497">
+    <row r="497" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J497" s="2"/>
     </row>
-    <row r="498">
+    <row r="498" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J498" s="2"/>
     </row>
-    <row r="499">
+    <row r="499" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J499" s="2"/>
     </row>
-    <row r="500">
+    <row r="500" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J500" s="2"/>
     </row>
-    <row r="501">
+    <row r="501" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J501" s="2"/>
     </row>
-    <row r="502">
+    <row r="502" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J502" s="2"/>
     </row>
-    <row r="503">
+    <row r="503" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J503" s="2"/>
     </row>
-    <row r="504">
+    <row r="504" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J504" s="2"/>
     </row>
-    <row r="505">
+    <row r="505" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J505" s="2"/>
     </row>
-    <row r="506">
+    <row r="506" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J506" s="2"/>
     </row>
-    <row r="507">
+    <row r="507" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J507" s="2"/>
     </row>
-    <row r="508">
+    <row r="508" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J508" s="2"/>
     </row>
-    <row r="509">
+    <row r="509" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J509" s="2"/>
     </row>
-    <row r="510">
+    <row r="510" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J510" s="2"/>
     </row>
-    <row r="511">
+    <row r="511" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J511" s="2"/>
     </row>
-    <row r="512">
+    <row r="512" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J512" s="2"/>
     </row>
-    <row r="513">
+    <row r="513" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J513" s="2"/>
     </row>
-    <row r="514">
+    <row r="514" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J514" s="2"/>
     </row>
-    <row r="515">
+    <row r="515" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J515" s="2"/>
     </row>
-    <row r="516">
+    <row r="516" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J516" s="2"/>
     </row>
-    <row r="517">
+    <row r="517" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J517" s="2"/>
     </row>
-    <row r="518">
+    <row r="518" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J518" s="2"/>
     </row>
-    <row r="519">
+    <row r="519" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J519" s="2"/>
     </row>
-    <row r="520">
+    <row r="520" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J520" s="2"/>
     </row>
-    <row r="521">
+    <row r="521" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J521" s="2"/>
     </row>
-    <row r="522">
+    <row r="522" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J522" s="2"/>
     </row>
-    <row r="523">
+    <row r="523" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J523" s="2"/>
     </row>
-    <row r="524">
+    <row r="524" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J524" s="2"/>
     </row>
-    <row r="525">
+    <row r="525" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J525" s="2"/>
     </row>
-    <row r="526">
+    <row r="526" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J526" s="2"/>
     </row>
-    <row r="527">
+    <row r="527" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J527" s="2"/>
     </row>
-    <row r="528">
+    <row r="528" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J528" s="2"/>
     </row>
-    <row r="529">
+    <row r="529" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J529" s="2"/>
     </row>
-    <row r="530">
+    <row r="530" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J530" s="2"/>
     </row>
-    <row r="531">
+    <row r="531" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J531" s="2"/>
     </row>
-    <row r="532">
+    <row r="532" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J532" s="2"/>
     </row>
-    <row r="533">
+    <row r="533" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J533" s="2"/>
     </row>
-    <row r="534">
+    <row r="534" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J534" s="2"/>
     </row>
-    <row r="535">
+    <row r="535" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J535" s="2"/>
     </row>
-    <row r="536">
+    <row r="536" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J536" s="2"/>
     </row>
-    <row r="537">
+    <row r="537" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J537" s="2"/>
     </row>
-    <row r="538">
+    <row r="538" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J538" s="2"/>
     </row>
-    <row r="539">
+    <row r="539" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J539" s="2"/>
     </row>
-    <row r="540">
+    <row r="540" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J540" s="2"/>
     </row>
-    <row r="541">
+    <row r="541" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J541" s="2"/>
     </row>
-    <row r="542">
+    <row r="542" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J542" s="2"/>
     </row>
-    <row r="543">
+    <row r="543" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J543" s="2"/>
     </row>
-    <row r="544">
+    <row r="544" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J544" s="2"/>
     </row>
-    <row r="545">
+    <row r="545" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J545" s="2"/>
     </row>
-    <row r="546">
+    <row r="546" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J546" s="2"/>
     </row>
-    <row r="547">
+    <row r="547" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J547" s="2"/>
     </row>
-    <row r="548">
+    <row r="548" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J548" s="2"/>
     </row>
-    <row r="549">
+    <row r="549" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J549" s="2"/>
     </row>
-    <row r="550">
+    <row r="550" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J550" s="2"/>
     </row>
-    <row r="551">
+    <row r="551" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J551" s="2"/>
     </row>
-    <row r="552">
+    <row r="552" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J552" s="2"/>
     </row>
-    <row r="553">
+    <row r="553" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J553" s="2"/>
     </row>
-    <row r="554">
+    <row r="554" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J554" s="2"/>
     </row>
-    <row r="555">
+    <row r="555" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J555" s="2"/>
     </row>
-    <row r="556">
+    <row r="556" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J556" s="2"/>
     </row>
-    <row r="557">
+    <row r="557" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J557" s="2"/>
     </row>
-    <row r="558">
+    <row r="558" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J558" s="2"/>
     </row>
-    <row r="559">
+    <row r="559" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J559" s="2"/>
     </row>
-    <row r="560">
+    <row r="560" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J560" s="2"/>
     </row>
-    <row r="561">
+    <row r="561" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J561" s="2"/>
     </row>
-    <row r="562">
+    <row r="562" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J562" s="2"/>
     </row>
-    <row r="563">
+    <row r="563" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J563" s="2"/>
     </row>
-    <row r="564">
+    <row r="564" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J564" s="2"/>
     </row>
-    <row r="565">
+    <row r="565" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J565" s="2"/>
     </row>
-    <row r="566">
+    <row r="566" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J566" s="2"/>
     </row>
-    <row r="567">
+    <row r="567" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J567" s="2"/>
     </row>
-    <row r="568">
+    <row r="568" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J568" s="2"/>
     </row>
-    <row r="569">
+    <row r="569" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J569" s="2"/>
     </row>
-    <row r="570">
+    <row r="570" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J570" s="2"/>
     </row>
-    <row r="571">
+    <row r="571" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J571" s="2"/>
     </row>
-    <row r="572">
+    <row r="572" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J572" s="2"/>
     </row>
-    <row r="573">
+    <row r="573" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J573" s="2"/>
     </row>
-    <row r="574">
+    <row r="574" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J574" s="2"/>
     </row>
-    <row r="575">
+    <row r="575" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J575" s="2"/>
     </row>
-    <row r="576">
+    <row r="576" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J576" s="2"/>
     </row>
-    <row r="577">
+    <row r="577" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J577" s="2"/>
     </row>
-    <row r="578">
+    <row r="578" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J578" s="2"/>
     </row>
-    <row r="579">
+    <row r="579" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J579" s="2"/>
     </row>
-    <row r="580">
+    <row r="580" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J580" s="2"/>
     </row>
-    <row r="581">
+    <row r="581" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J581" s="2"/>
     </row>
-    <row r="582">
+    <row r="582" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J582" s="2"/>
     </row>
-    <row r="583">
+    <row r="583" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J583" s="2"/>
     </row>
-    <row r="584">
+    <row r="584" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J584" s="2"/>
     </row>
-    <row r="585">
+    <row r="585" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J585" s="2"/>
     </row>
-    <row r="586">
+    <row r="586" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J586" s="2"/>
     </row>
-    <row r="587">
+    <row r="587" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J587" s="2"/>
     </row>
-    <row r="588">
+    <row r="588" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J588" s="2"/>
     </row>
-    <row r="589">
+    <row r="589" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J589" s="2"/>
     </row>
-    <row r="590">
+    <row r="590" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J590" s="2"/>
     </row>
-    <row r="591">
+    <row r="591" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J591" s="2"/>
     </row>
-    <row r="592">
+    <row r="592" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J592" s="2"/>
     </row>
-    <row r="593">
+    <row r="593" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J593" s="2"/>
     </row>
-    <row r="594">
+    <row r="594" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J594" s="2"/>
     </row>
-    <row r="595">
+    <row r="595" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J595" s="2"/>
     </row>
-    <row r="596">
+    <row r="596" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J596" s="2"/>
     </row>
-    <row r="597">
+    <row r="597" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J597" s="2"/>
     </row>
-    <row r="598">
+    <row r="598" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J598" s="2"/>
     </row>
-    <row r="599">
+    <row r="599" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J599" s="2"/>
     </row>
-    <row r="600">
+    <row r="600" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J600" s="2"/>
     </row>
-    <row r="601">
+    <row r="601" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J601" s="2"/>
     </row>
-    <row r="602">
+    <row r="602" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J602" s="2"/>
     </row>
-    <row r="603">
+    <row r="603" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J603" s="2"/>
     </row>
-    <row r="604">
+    <row r="604" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J604" s="2"/>
     </row>
-    <row r="605">
+    <row r="605" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J605" s="2"/>
     </row>
-    <row r="606">
+    <row r="606" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J606" s="2"/>
     </row>
-    <row r="607">
+    <row r="607" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J607" s="2"/>
     </row>
-    <row r="608">
+    <row r="608" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J608" s="2"/>
     </row>
-    <row r="609">
+    <row r="609" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J609" s="2"/>
     </row>
-    <row r="610">
+    <row r="610" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J610" s="2"/>
     </row>
-    <row r="611">
+    <row r="611" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J611" s="2"/>
     </row>
-    <row r="612">
+    <row r="612" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J612" s="2"/>
     </row>
-    <row r="613">
+    <row r="613" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J613" s="2"/>
     </row>
-    <row r="614">
+    <row r="614" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J614" s="2"/>
     </row>
-    <row r="615">
+    <row r="615" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J615" s="2"/>
     </row>
-    <row r="616">
+    <row r="616" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J616" s="2"/>
     </row>
-    <row r="617">
+    <row r="617" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J617" s="2"/>
     </row>
-    <row r="618">
+    <row r="618" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J618" s="2"/>
     </row>
-    <row r="619">
+    <row r="619" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J619" s="2"/>
     </row>
-    <row r="620">
+    <row r="620" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J620" s="2"/>
     </row>
-    <row r="621">
+    <row r="621" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J621" s="2"/>
     </row>
-    <row r="622">
+    <row r="622" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J622" s="2"/>
     </row>
-    <row r="623">
+    <row r="623" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J623" s="2"/>
     </row>
-    <row r="624">
+    <row r="624" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J624" s="2"/>
     </row>
-    <row r="625">
+    <row r="625" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J625" s="2"/>
     </row>
-    <row r="626">
+    <row r="626" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J626" s="2"/>
     </row>
-    <row r="627">
+    <row r="627" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J627" s="2"/>
     </row>
-    <row r="628">
+    <row r="628" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J628" s="2"/>
     </row>
-    <row r="629">
+    <row r="629" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J629" s="2"/>
     </row>
-    <row r="630">
+    <row r="630" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J630" s="2"/>
     </row>
-    <row r="631">
+    <row r="631" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J631" s="2"/>
     </row>
-    <row r="632">
+    <row r="632" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J632" s="2"/>
     </row>
-    <row r="633">
+    <row r="633" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J633" s="2"/>
     </row>
-    <row r="634">
+    <row r="634" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J634" s="2"/>
     </row>
-    <row r="635">
+    <row r="635" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J635" s="2"/>
     </row>
-    <row r="636">
+    <row r="636" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J636" s="2"/>
     </row>
-    <row r="637">
+    <row r="637" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J637" s="2"/>
     </row>
-    <row r="638">
+    <row r="638" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J638" s="2"/>
     </row>
-    <row r="639">
+    <row r="639" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J639" s="2"/>
     </row>
-    <row r="640">
+    <row r="640" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J640" s="2"/>
     </row>
-    <row r="641">
+    <row r="641" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J641" s="2"/>
     </row>
-    <row r="642">
+    <row r="642" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J642" s="2"/>
     </row>
-    <row r="643">
+    <row r="643" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J643" s="2"/>
     </row>
-    <row r="644">
+    <row r="644" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J644" s="2"/>
     </row>
-    <row r="645">
+    <row r="645" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J645" s="2"/>
     </row>
-    <row r="646">
+    <row r="646" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J646" s="2"/>
     </row>
-    <row r="647">
+    <row r="647" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J647" s="2"/>
     </row>
-    <row r="648">
+    <row r="648" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J648" s="2"/>
     </row>
-    <row r="649">
+    <row r="649" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J649" s="2"/>
     </row>
-    <row r="650">
+    <row r="650" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J650" s="2"/>
     </row>
-    <row r="651">
+    <row r="651" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J651" s="2"/>
     </row>
-    <row r="652">
+    <row r="652" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J652" s="2"/>
     </row>
-    <row r="653">
+    <row r="653" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J653" s="2"/>
     </row>
-    <row r="654">
+    <row r="654" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J654" s="2"/>
     </row>
-    <row r="655">
+    <row r="655" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J655" s="2"/>
     </row>
-    <row r="656">
+    <row r="656" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J656" s="2"/>
     </row>
-    <row r="657">
+    <row r="657" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J657" s="2"/>
     </row>
-    <row r="658">
+    <row r="658" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J658" s="2"/>
     </row>
-    <row r="659">
+    <row r="659" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J659" s="2"/>
     </row>
-    <row r="660">
+    <row r="660" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J660" s="2"/>
     </row>
-    <row r="661">
+    <row r="661" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J661" s="2"/>
     </row>
-    <row r="662">
+    <row r="662" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J662" s="2"/>
     </row>
-    <row r="663">
+    <row r="663" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J663" s="2"/>
     </row>
-    <row r="664">
+    <row r="664" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J664" s="2"/>
     </row>
-    <row r="665">
+    <row r="665" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J665" s="2"/>
     </row>
-    <row r="666">
+    <row r="666" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J666" s="2"/>
     </row>
-    <row r="667">
+    <row r="667" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J667" s="2"/>
     </row>
-    <row r="668">
+    <row r="668" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J668" s="2"/>
     </row>
-    <row r="669">
+    <row r="669" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J669" s="2"/>
     </row>
-    <row r="670">
+    <row r="670" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J670" s="2"/>
     </row>
-    <row r="671">
+    <row r="671" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J671" s="2"/>
     </row>
-    <row r="672">
+    <row r="672" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J672" s="2"/>
     </row>
-    <row r="673">
+    <row r="673" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J673" s="2"/>
     </row>
-    <row r="674">
+    <row r="674" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J674" s="2"/>
     </row>
-    <row r="675">
+    <row r="675" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J675" s="2"/>
     </row>
-    <row r="676">
+    <row r="676" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J676" s="2"/>
     </row>
-    <row r="677">
+    <row r="677" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J677" s="2"/>
     </row>
-    <row r="678">
+    <row r="678" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J678" s="2"/>
     </row>
-    <row r="679">
+    <row r="679" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J679" s="2"/>
     </row>
-    <row r="680">
+    <row r="680" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J680" s="2"/>
     </row>
-    <row r="681">
+    <row r="681" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J681" s="2"/>
     </row>
-    <row r="682">
+    <row r="682" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J682" s="2"/>
     </row>
-    <row r="683">
+    <row r="683" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J683" s="2"/>
     </row>
-    <row r="684">
+    <row r="684" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J684" s="2"/>
     </row>
-    <row r="685">
+    <row r="685" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J685" s="2"/>
     </row>
-    <row r="686">
+    <row r="686" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J686" s="2"/>
     </row>
-    <row r="687">
+    <row r="687" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J687" s="2"/>
     </row>
-    <row r="688">
+    <row r="688" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J688" s="2"/>
     </row>
-    <row r="689">
+    <row r="689" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J689" s="2"/>
     </row>
-    <row r="690">
+    <row r="690" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J690" s="2"/>
     </row>
-    <row r="691">
+    <row r="691" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J691" s="2"/>
     </row>
-    <row r="692">
+    <row r="692" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J692" s="2"/>
     </row>
-    <row r="693">
+    <row r="693" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J693" s="2"/>
     </row>
-    <row r="694">
+    <row r="694" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J694" s="2"/>
     </row>
-    <row r="695">
+    <row r="695" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J695" s="2"/>
     </row>
-    <row r="696">
+    <row r="696" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J696" s="2"/>
     </row>
-    <row r="697">
+    <row r="697" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J697" s="2"/>
     </row>
-    <row r="698">
+    <row r="698" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J698" s="2"/>
     </row>
-    <row r="699">
+    <row r="699" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J699" s="2"/>
     </row>
-    <row r="700">
+    <row r="700" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J700" s="2"/>
     </row>
-    <row r="701">
+    <row r="701" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J701" s="2"/>
     </row>
-    <row r="702">
+    <row r="702" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J702" s="2"/>
     </row>
-    <row r="703">
+    <row r="703" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J703" s="2"/>
     </row>
-    <row r="704">
+    <row r="704" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J704" s="2"/>
     </row>
-    <row r="705">
+    <row r="705" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J705" s="2"/>
     </row>
-    <row r="706">
+    <row r="706" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J706" s="2"/>
     </row>
-    <row r="707">
+    <row r="707" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J707" s="2"/>
     </row>
-    <row r="708">
+    <row r="708" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J708" s="2"/>
     </row>
-    <row r="709">
+    <row r="709" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J709" s="2"/>
     </row>
-    <row r="710">
+    <row r="710" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J710" s="2"/>
     </row>
-    <row r="711">
+    <row r="711" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J711" s="2"/>
     </row>
-    <row r="712">
+    <row r="712" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J712" s="2"/>
     </row>
-    <row r="713">
+    <row r="713" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J713" s="2"/>
     </row>
-    <row r="714">
+    <row r="714" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J714" s="2"/>
     </row>
-    <row r="715">
+    <row r="715" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J715" s="2"/>
     </row>
-    <row r="716">
+    <row r="716" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J716" s="2"/>
     </row>
-    <row r="717">
+    <row r="717" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J717" s="2"/>
     </row>
-    <row r="718">
+    <row r="718" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J718" s="2"/>
     </row>
-    <row r="719">
+    <row r="719" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J719" s="2"/>
     </row>
-    <row r="720">
+    <row r="720" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J720" s="2"/>
     </row>
-    <row r="721">
+    <row r="721" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J721" s="2"/>
     </row>
-    <row r="722">
+    <row r="722" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J722" s="2"/>
     </row>
-    <row r="723">
+    <row r="723" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J723" s="2"/>
     </row>
-    <row r="724">
+    <row r="724" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J724" s="2"/>
     </row>
-    <row r="725">
+    <row r="725" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J725" s="2"/>
     </row>
-    <row r="726">
+    <row r="726" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J726" s="2"/>
     </row>
-    <row r="727">
+    <row r="727" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J727" s="2"/>
     </row>
-    <row r="728">
+    <row r="728" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J728" s="2"/>
     </row>
-    <row r="729">
+    <row r="729" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J729" s="2"/>
     </row>
-    <row r="730">
+    <row r="730" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J730" s="2"/>
     </row>
-    <row r="731">
+    <row r="731" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J731" s="2"/>
     </row>
-    <row r="732">
+    <row r="732" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J732" s="2"/>
     </row>
-    <row r="733">
+    <row r="733" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J733" s="2"/>
     </row>
-    <row r="734">
+    <row r="734" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J734" s="2"/>
     </row>
-    <row r="735">
+    <row r="735" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J735" s="2"/>
     </row>
-    <row r="736">
+    <row r="736" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J736" s="2"/>
     </row>
-    <row r="737">
+    <row r="737" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J737" s="2"/>
     </row>
-    <row r="738">
+    <row r="738" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J738" s="2"/>
     </row>
-    <row r="739">
+    <row r="739" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J739" s="2"/>
     </row>
-    <row r="740">
+    <row r="740" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J740" s="2"/>
     </row>
-    <row r="741">
+    <row r="741" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J741" s="2"/>
     </row>
-    <row r="742">
+    <row r="742" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J742" s="2"/>
     </row>
-    <row r="743">
+    <row r="743" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J743" s="2"/>
     </row>
-    <row r="744">
+    <row r="744" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J744" s="2"/>
     </row>
-    <row r="745">
+    <row r="745" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J745" s="2"/>
     </row>
-    <row r="746">
+    <row r="746" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J746" s="2"/>
     </row>
-    <row r="747">
+    <row r="747" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J747" s="2"/>
     </row>
-    <row r="748">
+    <row r="748" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J748" s="2"/>
     </row>
-    <row r="749">
+    <row r="749" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J749" s="2"/>
     </row>
-    <row r="750">
+    <row r="750" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J750" s="2"/>
     </row>
-    <row r="751">
+    <row r="751" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J751" s="2"/>
     </row>
-    <row r="752">
+    <row r="752" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J752" s="2"/>
     </row>
-    <row r="753">
+    <row r="753" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J753" s="2"/>
     </row>
-    <row r="754">
+    <row r="754" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J754" s="2"/>
     </row>
-    <row r="755">
+    <row r="755" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J755" s="2"/>
     </row>
-    <row r="756">
+    <row r="756" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J756" s="2"/>
     </row>
-    <row r="757">
+    <row r="757" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J757" s="2"/>
     </row>
-    <row r="758">
+    <row r="758" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J758" s="2"/>
     </row>
-    <row r="759">
+    <row r="759" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J759" s="2"/>
     </row>
-    <row r="760">
+    <row r="760" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J760" s="2"/>
     </row>
-    <row r="761">
+    <row r="761" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J761" s="2"/>
     </row>
-    <row r="762">
+    <row r="762" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J762" s="2"/>
     </row>
-    <row r="763">
+    <row r="763" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J763" s="2"/>
     </row>
-    <row r="764">
+    <row r="764" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J764" s="2"/>
     </row>
-    <row r="765">
+    <row r="765" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J765" s="2"/>
     </row>
-    <row r="766">
+    <row r="766" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J766" s="2"/>
     </row>
-    <row r="767">
+    <row r="767" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J767" s="2"/>
     </row>
-    <row r="768">
+    <row r="768" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J768" s="2"/>
     </row>
-    <row r="769">
+    <row r="769" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J769" s="2"/>
     </row>
-    <row r="770">
+    <row r="770" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J770" s="2"/>
     </row>
-    <row r="771">
+    <row r="771" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J771" s="2"/>
     </row>
-    <row r="772">
+    <row r="772" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J772" s="2"/>
     </row>
-    <row r="773">
+    <row r="773" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J773" s="2"/>
     </row>
-    <row r="774">
+    <row r="774" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J774" s="2"/>
     </row>
-    <row r="775">
+    <row r="775" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J775" s="2"/>
     </row>
-    <row r="776">
+    <row r="776" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J776" s="2"/>
     </row>
-    <row r="777">
+    <row r="777" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J777" s="2"/>
     </row>
-    <row r="778">
+    <row r="778" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J778" s="2"/>
     </row>
-    <row r="779">
+    <row r="779" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J779" s="2"/>
     </row>
-    <row r="780">
+    <row r="780" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J780" s="2"/>
     </row>
-    <row r="781">
+    <row r="781" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J781" s="2"/>
     </row>
-    <row r="782">
+    <row r="782" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J782" s="2"/>
     </row>
-    <row r="783">
+    <row r="783" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J783" s="2"/>
     </row>
-    <row r="784">
+    <row r="784" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J784" s="2"/>
     </row>
-    <row r="785">
+    <row r="785" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J785" s="2"/>
     </row>
-    <row r="786">
+    <row r="786" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J786" s="2"/>
     </row>
-    <row r="787">
+    <row r="787" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J787" s="2"/>
     </row>
-    <row r="788">
+    <row r="788" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J788" s="2"/>
     </row>
-    <row r="789">
+    <row r="789" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J789" s="2"/>
     </row>
-    <row r="790">
+    <row r="790" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J790" s="2"/>
     </row>
-    <row r="791">
+    <row r="791" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J791" s="2"/>
     </row>
-    <row r="792">
+    <row r="792" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J792" s="2"/>
     </row>
-    <row r="793">
+    <row r="793" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J793" s="2"/>
     </row>
-    <row r="794">
+    <row r="794" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J794" s="2"/>
     </row>
-    <row r="795">
+    <row r="795" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J795" s="2"/>
     </row>
-    <row r="796">
+    <row r="796" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J796" s="2"/>
     </row>
-    <row r="797">
+    <row r="797" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J797" s="2"/>
     </row>
-    <row r="798">
+    <row r="798" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J798" s="2"/>
     </row>
-    <row r="799">
+    <row r="799" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J799" s="2"/>
     </row>
-    <row r="800">
+    <row r="800" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J800" s="2"/>
     </row>
-    <row r="801">
+    <row r="801" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J801" s="2"/>
     </row>
-    <row r="802">
+    <row r="802" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J802" s="2"/>
     </row>
-    <row r="803">
+    <row r="803" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J803" s="2"/>
     </row>
-    <row r="804">
+    <row r="804" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J804" s="2"/>
     </row>
-    <row r="805">
+    <row r="805" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J805" s="2"/>
     </row>
-    <row r="806">
+    <row r="806" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J806" s="2"/>
     </row>
-    <row r="807">
+    <row r="807" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J807" s="2"/>
     </row>
-    <row r="808">
+    <row r="808" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J808" s="2"/>
     </row>
-    <row r="809">
+    <row r="809" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J809" s="2"/>
     </row>
-    <row r="810">
+    <row r="810" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J810" s="2"/>
     </row>
-    <row r="811">
+    <row r="811" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J811" s="2"/>
     </row>
-    <row r="812">
+    <row r="812" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J812" s="2"/>
     </row>
-    <row r="813">
+    <row r="813" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J813" s="2"/>
     </row>
-    <row r="814">
+    <row r="814" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J814" s="2"/>
     </row>
-    <row r="815">
+    <row r="815" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J815" s="2"/>
     </row>
-    <row r="816">
+    <row r="816" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J816" s="2"/>
     </row>
-    <row r="817">
+    <row r="817" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J817" s="2"/>
     </row>
-    <row r="818">
+    <row r="818" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J818" s="2"/>
     </row>
-    <row r="819">
+    <row r="819" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J819" s="2"/>
     </row>
-    <row r="820">
+    <row r="820" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J820" s="2"/>
     </row>
-    <row r="821">
+    <row r="821" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J821" s="2"/>
     </row>
-    <row r="822">
+    <row r="822" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J822" s="2"/>
     </row>
-    <row r="823">
+    <row r="823" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J823" s="2"/>
     </row>
-    <row r="824">
+    <row r="824" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J824" s="2"/>
     </row>
-    <row r="825">
+    <row r="825" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J825" s="2"/>
     </row>
-    <row r="826">
+    <row r="826" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J826" s="2"/>
     </row>
-    <row r="827">
+    <row r="827" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J827" s="2"/>
     </row>
-    <row r="828">
+    <row r="828" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J828" s="2"/>
     </row>
-    <row r="829">
+    <row r="829" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J829" s="2"/>
     </row>
-    <row r="830">
+    <row r="830" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J830" s="2"/>
     </row>
-    <row r="831">
+    <row r="831" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J831" s="2"/>
     </row>
-    <row r="832">
+    <row r="832" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J832" s="2"/>
     </row>
-    <row r="833">
+    <row r="833" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J833" s="2"/>
     </row>
-    <row r="834">
+    <row r="834" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J834" s="2"/>
     </row>
-    <row r="835">
+    <row r="835" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J835" s="2"/>
     </row>
-    <row r="836">
+    <row r="836" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J836" s="2"/>
     </row>
-    <row r="837">
+    <row r="837" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J837" s="2"/>
     </row>
-    <row r="838">
+    <row r="838" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J838" s="2"/>
     </row>
-    <row r="839">
+    <row r="839" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J839" s="2"/>
     </row>
-    <row r="840">
+    <row r="840" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J840" s="2"/>
     </row>
-    <row r="841">
+    <row r="841" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J841" s="2"/>
     </row>
-    <row r="842">
+    <row r="842" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J842" s="2"/>
     </row>
-    <row r="843">
+    <row r="843" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J843" s="2"/>
     </row>
-    <row r="844">
+    <row r="844" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J844" s="2"/>
     </row>
-    <row r="845">
+    <row r="845" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J845" s="2"/>
     </row>
-    <row r="846">
+    <row r="846" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J846" s="2"/>
     </row>
-    <row r="847">
+    <row r="847" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J847" s="2"/>
     </row>
-    <row r="848">
+    <row r="848" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J848" s="2"/>
     </row>
-    <row r="849">
+    <row r="849" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J849" s="2"/>
     </row>
-    <row r="850">
+    <row r="850" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J850" s="2"/>
     </row>
-    <row r="851">
+    <row r="851" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J851" s="2"/>
     </row>
-    <row r="852">
+    <row r="852" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J852" s="2"/>
     </row>
-    <row r="853">
+    <row r="853" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J853" s="2"/>
     </row>
-    <row r="854">
+    <row r="854" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J854" s="2"/>
     </row>
-    <row r="855">
+    <row r="855" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J855" s="2"/>
     </row>
-    <row r="856">
+    <row r="856" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J856" s="2"/>
     </row>
-    <row r="857">
+    <row r="857" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J857" s="2"/>
     </row>
-    <row r="858">
+    <row r="858" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J858" s="2"/>
     </row>
-    <row r="859">
+    <row r="859" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J859" s="2"/>
     </row>
-    <row r="860">
+    <row r="860" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J860" s="2"/>
     </row>
-    <row r="861">
+    <row r="861" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J861" s="2"/>
     </row>
-    <row r="862">
+    <row r="862" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J862" s="2"/>
     </row>
-    <row r="863">
+    <row r="863" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J863" s="2"/>
     </row>
-    <row r="864">
+    <row r="864" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J864" s="2"/>
     </row>
-    <row r="865">
+    <row r="865" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J865" s="2"/>
     </row>
-    <row r="866">
+    <row r="866" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J866" s="2"/>
     </row>
-    <row r="867">
+    <row r="867" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J867" s="2"/>
     </row>
-    <row r="868">
+    <row r="868" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J868" s="2"/>
     </row>
-    <row r="869">
+    <row r="869" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J869" s="2"/>
     </row>
-    <row r="870">
+    <row r="870" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J870" s="2"/>
     </row>
-    <row r="871">
+    <row r="871" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J871" s="2"/>
     </row>
-    <row r="872">
+    <row r="872" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J872" s="2"/>
     </row>
-    <row r="873">
+    <row r="873" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J873" s="2"/>
     </row>
-    <row r="874">
+    <row r="874" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J874" s="2"/>
     </row>
-    <row r="875">
+    <row r="875" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J875" s="2"/>
     </row>
-    <row r="876">
+    <row r="876" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J876" s="2"/>
     </row>
-    <row r="877">
+    <row r="877" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J877" s="2"/>
     </row>
-    <row r="878">
+    <row r="878" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J878" s="2"/>
     </row>
-    <row r="879">
+    <row r="879" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J879" s="2"/>
     </row>
-    <row r="880">
+    <row r="880" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J880" s="2"/>
     </row>
-    <row r="881">
+    <row r="881" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J881" s="2"/>
     </row>
-    <row r="882">
+    <row r="882" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J882" s="2"/>
     </row>
-    <row r="883">
+    <row r="883" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J883" s="2"/>
     </row>
-    <row r="884">
+    <row r="884" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J884" s="2"/>
     </row>
-    <row r="885">
+    <row r="885" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J885" s="2"/>
     </row>
-    <row r="886">
+    <row r="886" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J886" s="2"/>
     </row>
-    <row r="887">
+    <row r="887" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J887" s="2"/>
     </row>
-    <row r="888">
+    <row r="888" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J888" s="2"/>
     </row>
-    <row r="889">
+    <row r="889" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J889" s="2"/>
     </row>
-    <row r="890">
+    <row r="890" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J890" s="2"/>
     </row>
-    <row r="891">
+    <row r="891" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J891" s="2"/>
     </row>
-    <row r="892">
+    <row r="892" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J892" s="2"/>
     </row>
-    <row r="893">
+    <row r="893" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J893" s="2"/>
     </row>
-    <row r="894">
+    <row r="894" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J894" s="2"/>
     </row>
-    <row r="895">
+    <row r="895" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J895" s="2"/>
     </row>
-    <row r="896">
+    <row r="896" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J896" s="2"/>
     </row>
-    <row r="897">
+    <row r="897" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J897" s="2"/>
     </row>
-    <row r="898">
+    <row r="898" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J898" s="2"/>
     </row>
-    <row r="899">
+    <row r="899" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J899" s="2"/>
     </row>
-    <row r="900">
+    <row r="900" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J900" s="2"/>
     </row>
-    <row r="901">
+    <row r="901" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J901" s="2"/>
     </row>
-    <row r="902">
+    <row r="902" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J902" s="2"/>
     </row>
-    <row r="903">
+    <row r="903" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J903" s="2"/>
     </row>
-    <row r="904">
+    <row r="904" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J904" s="2"/>
     </row>
-    <row r="905">
+    <row r="905" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J905" s="2"/>
     </row>
-    <row r="906">
+    <row r="906" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J906" s="2"/>
     </row>
-    <row r="907">
+    <row r="907" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J907" s="2"/>
     </row>
-    <row r="908">
+    <row r="908" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J908" s="2"/>
     </row>
-    <row r="909">
+    <row r="909" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J909" s="2"/>
     </row>
-    <row r="910">
+    <row r="910" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J910" s="2"/>
     </row>
-    <row r="911">
+    <row r="911" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J911" s="2"/>
     </row>
-    <row r="912">
+    <row r="912" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J912" s="2"/>
     </row>
-    <row r="913">
+    <row r="913" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J913" s="2"/>
     </row>
-    <row r="914">
+    <row r="914" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J914" s="2"/>
     </row>
-    <row r="915">
+    <row r="915" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J915" s="2"/>
     </row>
-    <row r="916">
+    <row r="916" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J916" s="2"/>
     </row>
-    <row r="917">
+    <row r="917" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J917" s="2"/>
     </row>
-    <row r="918">
+    <row r="918" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J918" s="2"/>
     </row>
-    <row r="919">
+    <row r="919" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J919" s="2"/>
     </row>
-    <row r="920">
+    <row r="920" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J920" s="2"/>
     </row>
-    <row r="921">
+    <row r="921" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J921" s="2"/>
     </row>
-    <row r="922">
+    <row r="922" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J922" s="2"/>
     </row>
-    <row r="923">
+    <row r="923" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J923" s="2"/>
     </row>
-    <row r="924">
+    <row r="924" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J924" s="2"/>
     </row>
-    <row r="925">
+    <row r="925" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J925" s="2"/>
     </row>
-    <row r="926">
+    <row r="926" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J926" s="2"/>
     </row>
-    <row r="927">
+    <row r="927" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J927" s="2"/>
     </row>
-    <row r="928">
+    <row r="928" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J928" s="2"/>
     </row>
-    <row r="929">
+    <row r="929" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J929" s="2"/>
     </row>
-    <row r="930">
+    <row r="930" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J930" s="2"/>
     </row>
-    <row r="931">
+    <row r="931" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J931" s="2"/>
     </row>
-    <row r="932">
+    <row r="932" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J932" s="2"/>
     </row>
-    <row r="933">
+    <row r="933" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J933" s="2"/>
     </row>
-    <row r="934">
+    <row r="934" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J934" s="2"/>
     </row>
-    <row r="935">
+    <row r="935" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J935" s="2"/>
     </row>
-    <row r="936">
+    <row r="936" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J936" s="2"/>
     </row>
-    <row r="937">
+    <row r="937" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J937" s="2"/>
     </row>
-    <row r="938">
+    <row r="938" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J938" s="2"/>
     </row>
-    <row r="939">
+    <row r="939" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J939" s="2"/>
     </row>
-    <row r="940">
+    <row r="940" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J940" s="2"/>
     </row>
-    <row r="941">
+    <row r="941" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J941" s="2"/>
     </row>
-    <row r="942">
+    <row r="942" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J942" s="2"/>
     </row>
-    <row r="943">
+    <row r="943" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J943" s="2"/>
     </row>
-    <row r="944">
+    <row r="944" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J944" s="2"/>
     </row>
-    <row r="945">
+    <row r="945" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J945" s="2"/>
     </row>
-    <row r="946">
+    <row r="946" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J946" s="2"/>
     </row>
-    <row r="947">
+    <row r="947" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J947" s="2"/>
     </row>
-    <row r="948">
+    <row r="948" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J948" s="2"/>
     </row>
-    <row r="949">
+    <row r="949" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J949" s="2"/>
     </row>
-    <row r="950">
+    <row r="950" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J950" s="2"/>
     </row>
-    <row r="951">
+    <row r="951" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J951" s="2"/>
     </row>
-    <row r="952">
+    <row r="952" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J952" s="2"/>
     </row>
-    <row r="953">
+    <row r="953" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J953" s="2"/>
     </row>
-    <row r="954">
+    <row r="954" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J954" s="2"/>
     </row>
-    <row r="955">
+    <row r="955" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J955" s="2"/>
     </row>
-    <row r="956">
+    <row r="956" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J956" s="2"/>
     </row>
-    <row r="957">
+    <row r="957" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J957" s="2"/>
     </row>
-    <row r="958">
+    <row r="958" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J958" s="2"/>
     </row>
-    <row r="959">
+    <row r="959" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J959" s="2"/>
     </row>
-    <row r="960">
+    <row r="960" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J960" s="2"/>
     </row>
-    <row r="961">
+    <row r="961" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J961" s="2"/>
     </row>
-    <row r="962">
+    <row r="962" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J962" s="2"/>
     </row>
-    <row r="963">
+    <row r="963" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J963" s="2"/>
     </row>
-    <row r="964">
+    <row r="964" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J964" s="2"/>
     </row>
-    <row r="965">
+    <row r="965" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J965" s="2"/>
     </row>
-    <row r="966">
+    <row r="966" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J966" s="2"/>
     </row>
-    <row r="967">
+    <row r="967" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J967" s="2"/>
     </row>
-    <row r="968">
+    <row r="968" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J968" s="2"/>
     </row>
-    <row r="969">
+    <row r="969" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J969" s="2"/>
     </row>
-    <row r="970">
+    <row r="970" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J970" s="2"/>
     </row>
-    <row r="971">
+    <row r="971" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J971" s="2"/>
     </row>
-    <row r="972">
+    <row r="972" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J972" s="2"/>
     </row>
-    <row r="973">
+    <row r="973" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J973" s="2"/>
     </row>
-    <row r="974">
+    <row r="974" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J974" s="2"/>
     </row>
-    <row r="975">
+    <row r="975" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J975" s="2"/>
     </row>
-    <row r="976">
+    <row r="976" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J976" s="2"/>
     </row>
-    <row r="977">
+    <row r="977" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J977" s="2"/>
     </row>
-    <row r="978">
+    <row r="978" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J978" s="2"/>
     </row>
-    <row r="979">
+    <row r="979" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J979" s="2"/>
     </row>
-    <row r="980">
+    <row r="980" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J980" s="2"/>
     </row>
-    <row r="981">
+    <row r="981" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J981" s="2"/>
     </row>
-    <row r="982">
+    <row r="982" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J982" s="2"/>
     </row>
-    <row r="983">
+    <row r="983" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J983" s="2"/>
     </row>
-    <row r="984">
+    <row r="984" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J984" s="2"/>
     </row>
-    <row r="985">
+    <row r="985" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J985" s="2"/>
     </row>
-    <row r="986">
+    <row r="986" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J986" s="2"/>
     </row>
-    <row r="987">
+    <row r="987" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J987" s="2"/>
     </row>
-    <row r="988">
+    <row r="988" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J988" s="2"/>
     </row>
-    <row r="989">
+    <row r="989" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J989" s="2"/>
     </row>
-    <row r="990">
+    <row r="990" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J990" s="2"/>
     </row>
-    <row r="991">
+    <row r="991" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J991" s="2"/>
     </row>
-    <row r="992">
+    <row r="992" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J992" s="2"/>
     </row>
-    <row r="993">
+    <row r="993" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J993" s="2"/>
     </row>
-    <row r="994">
+    <row r="994" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J994" s="2"/>
     </row>
-    <row r="995">
+    <row r="995" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J995" s="2"/>
     </row>
-    <row r="996">
+    <row r="996" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J996" s="2"/>
     </row>
-    <row r="997">
+    <row r="997" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J997" s="2"/>
     </row>
-    <row r="998">
+    <row r="998" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J998" s="2"/>
     </row>
-    <row r="999">
+    <row r="999" spans="10:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J999" s="2"/>
     </row>
   </sheetData>
@@ -5795,43 +5378,41 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="N8"/>
-    <hyperlink r:id="rId3" ref="N20"/>
-    <hyperlink r:id="rId4" ref="K22"/>
-    <hyperlink r:id="rId5" ref="N24"/>
+    <hyperlink ref="K22" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
-  <pageSetup paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="16" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>